--- a/project/uploads/93/split_output/22自动化说明.xlsx
+++ b/project/uploads/93/split_output/22自动化说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29815658-D230-4873-B34F-1C816490966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9BB164-9C82-4460-B13A-63670376CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5E1C8384-E2BC-4220-BA0E-128697751044}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{717A9119-EC24-46C6-BDF0-8EEB836AE4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="22自动化说明" sheetId="1" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{F0BFE091-AE10-4523-9A74-65BB4F44BD8E}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{31664EB2-F187-47BE-8232-11D62A766C14}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1595,7 +1595,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF69418-D18E-4DC8-B7CF-FB43102F4233}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071F7D3B-F56C-41D7-8305-1DDCA68F0620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,8 +1611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9822180" y="635"/>
-          <a:ext cx="9460230" cy="6627495"/>
+          <a:off x="9696450" y="635"/>
+          <a:ext cx="9455150" cy="7173595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,7 +1643,7 @@
         <xdr:cNvPr id="3" name="Picture 37681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE25AA86-6877-4939-A550-8B38547D2B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB42D32-38AF-4B13-9A33-1B9098C31137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,8 +1659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="635"/>
-          <a:ext cx="6790055" cy="7015480"/>
+          <a:off x="231140" y="635"/>
+          <a:ext cx="6688455" cy="7599680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,7 +1691,7 @@
         <xdr:cNvPr id="4" name="圆角矩形 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57FB9B7-11AB-4567-81B0-4B4797E4E6AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEEF2B8-DFFD-47B3-8B68-E1B3727E34BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,8 +1699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715760" y="418465"/>
-          <a:ext cx="2829560" cy="4218305"/>
+          <a:off x="6614160" y="443865"/>
+          <a:ext cx="2810510" cy="4573905"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2002,7 +2002,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F8D25-39C9-4F1F-8863-0034BCA35498}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E49E11-D341-4FB5-9F6D-A817669CEF57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,8 +2018,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600710" y="7738110"/>
-          <a:ext cx="7370445" cy="4088765"/>
+          <a:off x="590550" y="8373110"/>
+          <a:ext cx="7258685" cy="4431665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2050,7 +2050,7 @@
         <xdr:cNvPr id="6" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC17AD6D-001A-4CA1-9E85-F29912C90D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D45539-6DAD-4D4D-AB04-9F11D298C2BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,8 +2067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8927465" y="6694170"/>
-          <a:ext cx="6428105" cy="4919980"/>
+          <a:off x="8803005" y="7240270"/>
+          <a:ext cx="6421755" cy="5339080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2099,7 +2099,7 @@
         <xdr:cNvPr id="7" name="Group 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A402044-69B7-48DD-AE61-17E51D9A783C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86ACC381-87B0-4FE8-A3F3-588A0CABD416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,8 +2107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12162609" y="10085070"/>
-          <a:ext cx="2840990" cy="980440"/>
+          <a:off x="11928566" y="10803527"/>
+          <a:ext cx="2855504" cy="1045754"/>
           <a:chOff x="421" y="426"/>
           <a:chExt cx="242" cy="85"/>
         </a:xfrm>
@@ -2118,7 +2118,7 @@
           <xdr:cNvPr id="8" name="Text Box 209">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA57ECD2-E849-1088-2D64-98C5991FFB44}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF6FC8C-2E2E-384D-03FA-CD3F4F53BB89}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2300,7 +2300,7 @@
           <xdr:cNvPr id="9" name="Rectangle 210">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E3EF90-B6B2-1081-76C8-313797A5053F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2686189-9964-CBFD-CEB2-36385EABCE31}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2331,7 +2331,7 @@
           <xdr:cNvPr id="10" name="Text Box 211">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858D6CCE-2D95-A749-7A41-73E99155787D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C149ADA1-50A6-CBFE-4496-D7777D38A62C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2455,7 +2455,7 @@
           <xdr:cNvPr id="11" name="Line 212">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD07D28-0F5F-B7BE-2A96-3592093D3359}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C1FB16-36EC-5897-8654-B06E10FBE88B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2485,7 +2485,7 @@
           <xdr:cNvPr id="12" name="Line 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BB5AEC-BF75-D1F3-2BC2-9082C17C6E89}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6684AB96-844E-7A1E-CBCB-0BECAFF1631F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2531,7 +2531,7 @@
         <xdr:cNvPr id="13" name="Text Box 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C6B6A2-FE4F-4619-862F-19D65ECB7C1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD876CF-9011-4254-94EF-2D7D03E5189C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,8 +2541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12953365" y="10655935"/>
-          <a:ext cx="1676400" cy="241300"/>
+          <a:off x="12822555" y="11532235"/>
+          <a:ext cx="1676400" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8308,7 +8308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FB1191-CCA3-4F14-B8DE-46B7F18891F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710E951A-6766-4A08-BF23-DD2D1595D3E5}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8318,21 +8318,21 @@
       <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1" style="3" customWidth="1"/>
-    <col min="2" max="23" width="4.88671875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="1" style="3" customWidth="1"/>
-    <col min="25" max="25" width="4.44140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="4" style="3" customWidth="1"/>
-    <col min="27" max="27" width="3.21875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="3.88671875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="4.44140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="3.5546875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="3.77734375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="4.33203125" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="10" style="3"/>
+    <col min="1" max="1" width="0.90625" style="3" customWidth="1"/>
+    <col min="2" max="23" width="4.7265625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="0.90625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="4.36328125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="3.90625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="3.08984375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="3.81640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="3.54296875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="4.36328125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="3.54296875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="3.6328125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="4.1796875" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="52" spans="2:47">
